--- a/ENTREGABLE_1.xlsx
+++ b/ENTREGABLE_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilit\Documents\PROYECTOS DE PROGRAMACION\NODE JS\ENTREGABLES\PRIMERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D956E1D-91D9-469F-98A6-EE6CA899D233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C3473-2C16-4594-9464-97503414A5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{9ACAB056-68EF-4EF9-8430-49AFB4B0CFC9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>users</t>
   </si>
@@ -78,9 +78,6 @@
     <t>fgonzales@gmail.com</t>
   </si>
   <si>
-    <t>359*1</t>
-  </si>
-  <si>
     <t>teacher</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>jochoa@gmail.com</t>
   </si>
   <si>
-    <t>8243.5</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>mtapia@gmail.com</t>
   </si>
   <si>
-    <t>5394_25</t>
-  </si>
-  <si>
     <t>Victor</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>vpuente@gmail.com</t>
   </si>
   <si>
-    <t>753**_21</t>
-  </si>
-  <si>
     <t>Byron</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t>bvillegas@gmail.com</t>
   </si>
   <si>
-    <t>mjk52*</t>
-  </si>
-  <si>
     <t>users-courses</t>
   </si>
   <si>
@@ -244,6 +229,12 @@
   </si>
   <si>
     <t>www.https://_5</t>
+  </si>
+  <si>
+    <t>title1</t>
+  </si>
+  <si>
+    <t>Conocimiento de bases de datos.</t>
   </si>
 </sst>
 </file>
@@ -275,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +282,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,9 +347,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,9 +355,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -369,6 +366,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862BB26E-7F15-461F-B239-C6B3FA80EE0C}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +718,7 @@
     <col min="8" max="8" width="38" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="1"/>
     <col min="13" max="13" width="10.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" style="1" customWidth="1"/>
@@ -714,10 +729,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C1" s="14">
+        <v>4</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="14">
         <v>1</v>
       </c>
     </row>
@@ -792,8 +813,8 @@
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
+      <c r="E4" s="4">
+        <v>3591</v>
       </c>
       <c r="F4" s="4">
         <v>48</v>
@@ -805,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -813,16 +834,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
+      <c r="E5" s="4">
+        <v>82435</v>
       </c>
       <c r="F5" s="4">
         <v>35</v>
@@ -834,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -842,16 +863,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
+      <c r="E6" s="4">
+        <v>539425</v>
       </c>
       <c r="F6" s="4">
         <v>28</v>
@@ -865,16 +886,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="E7" s="4">
+        <v>75321</v>
       </c>
       <c r="F7" s="4">
         <v>38</v>
@@ -888,16 +909,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
+        <v>459173</v>
       </c>
       <c r="F8" s="4">
         <v>50</v>
@@ -907,424 +928,373 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="14">
+        <v>6</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="G10" s="1" t="s">
+      <c r="I11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="J11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="K11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J12" s="12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="H13" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="I13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="J13" s="12">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="H14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="14">
-        <v>2</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="14">
-        <v>2</v>
-      </c>
-      <c r="K13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="12">
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="9">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="14">
-        <v>5</v>
-      </c>
-      <c r="K14" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="9">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9">
-        <v>4</v>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="12">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="14">
+        <v>7</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="J21" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="14">
-        <v>6</v>
-      </c>
-      <c r="K15" s="4">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
-        <v>5</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
-        <v>7</v>
-      </c>
-      <c r="C18" s="9">
-        <v>5</v>
-      </c>
-      <c r="D18" s="9">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
-        <v>8</v>
-      </c>
-      <c r="C19" s="9">
-        <v>6</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
         <v>4</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="K25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>2</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="4">
-        <v>2</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <v>3</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="4">
-        <v>3</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4">
-        <v>3</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>4</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="C26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="19">
         <v>4</v>
       </c>
-      <c r="F26" s="4">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4">
-        <v>4</v>
-      </c>
-      <c r="H26" s="2"/>
+      <c r="F26" s="19">
+        <v>3</v>
+      </c>
+      <c r="G26" s="19">
+        <v>5</v>
+      </c>
       <c r="I26" s="4">
         <v>4</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>69</v>
+      <c r="J26" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4</v>
-      </c>
-      <c r="G27" s="4">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I27" s="4">
         <v>5</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>71</v>
+      <c r="J27" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="2"/>
-    </row>
-    <row r="31" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="2"/>
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{181606A9-4AA5-4FA8-B8F8-33C3FC47AF6C}"/>
-    <hyperlink ref="K23" r:id="rId2" xr:uid="{A9998A60-B196-4051-A727-726B3DD2CC04}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{CB6814E8-D97D-47C5-8A1F-7C7BFC90F7A6}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{09195905-BA82-4EF1-B25D-C2A8AF0CEFDB}"/>
-    <hyperlink ref="K24" r:id="rId5" xr:uid="{7C9C675D-ECE4-4763-AF9B-74E00A92BE7C}"/>
-    <hyperlink ref="K25" r:id="rId6" xr:uid="{B99A2EBE-36A4-4455-BF47-28E96FE473E1}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{ED69776A-B855-4BD7-AF31-4BB39829A563}"/>
-    <hyperlink ref="D7" r:id="rId8" xr:uid="{B1F4CB11-5DBC-4439-B387-07A89F59664D}"/>
-    <hyperlink ref="K26" r:id="rId9" xr:uid="{2222BBCB-6DCD-460D-8BE7-1803A4978FB9}"/>
-    <hyperlink ref="D8" r:id="rId10" xr:uid="{7EAE7070-CDB2-42D6-9C15-129DFBB14642}"/>
-    <hyperlink ref="K27" r:id="rId11" xr:uid="{2A2A85A5-B895-4D13-8972-41E1E331FC0A}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{9898D093-D865-4BD3-B8E8-9689E867FDD1}"/>
+    <hyperlink ref="K23" r:id="rId2" xr:uid="{D35A798D-C6A5-4A5A-B0D7-BDFB66E3AF9E}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{9F8D9C8B-E662-4C36-95E0-53C3CF1D07FA}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{12386509-86BC-49ED-ACE4-09436140018D}"/>
+    <hyperlink ref="K24" r:id="rId5" xr:uid="{A5D2D250-433B-44FA-A8CC-8DCB8CE8C8B7}"/>
+    <hyperlink ref="K25" r:id="rId6" xr:uid="{7771C8CA-DCFF-411E-9A8C-C3F8C93E017C}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{156ABE31-8635-42DD-A4CB-A6883F41CACA}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{368D0C41-76EA-4F38-8F95-DBB74C4BAB9D}"/>
+    <hyperlink ref="K26" r:id="rId9" xr:uid="{510756BF-29CA-45FA-8950-68467EE655DA}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{B04AE434-8E9A-4C3C-9DBC-2A59FBF5D1DC}"/>
+    <hyperlink ref="K27" r:id="rId11" xr:uid="{8ADA44F4-9CC4-402D-82C0-295A9170B7FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
